--- a/excel/shopee.xlsx
+++ b/excel/shopee.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="325">
   <si>
     <t xml:space="preserve">No. Pesanan</t>
   </si>
@@ -277,120 +277,123 @@
     <t xml:space="preserve">231218GH4GR68A</t>
   </si>
   <si>
+    <t xml:space="preserve">10008153147146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reguler (Cashless)-Anteraja Reguler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-20 10:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-18 15:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-18 10:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-18 10:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rice Paper / Kulit Lumpia Vietnam / rice roll spring roll BANH TRANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAS070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500gr,Bulat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratnatrieutami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R******i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">******61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jln. Angkasa no. 20 rt/13 rw/3 Gn. Sahari selatan, kec kemayoran kode pos 10610, KOTA JAKARTA PUSAT, KEMAYORAN, DKI JAKARTA, ID, 10610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOTA JAKARTA PUSAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231218GHU4K0R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1843294050132480913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instant-SPX Instant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-18 10:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-18 10:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KYAK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kikkoman Yakiniku Sauce - Saus Yakiniku 5 liter HALAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">267.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7500 gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">267.451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artha.daging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A***n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">******22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zamra House, Jl Haj Ten Komplek Bulog Blok B No.25, KOTA JAKARTA TIMUR, PULO GADUNG, DKI JAKARTA, ID, 13210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOTA JAKARTA TIMUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231218GK7S6K3D</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perlu Dikirim</t>
   </si>
   <si>
-    <t xml:space="preserve">10008153147146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reguler (Cashless)-Anteraja Reguler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-20 10:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-18 10:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-18 10:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online Payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rice Paper / Kulit Lumpia Vietnam / rice roll spring roll BANH TRANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAS070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500gr,Bulat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300 gr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ratnatrieutami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R******i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">******61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jln. Angkasa no. 20 rt/13 rw/3 Gn. Sahari selatan, kec kemayoran kode pos 10610, KOTA JAKARTA PUSAT, KEMAYORAN, DKI JAKARTA, ID, 10610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOTA JAKARTA PUSAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231218GHU4K0R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1843294050132480913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instant-SPX Instant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-18 10:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-18 10:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KYAK3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kikkoman Yakiniku Sauce - Saus Yakiniku 5 liter HALAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">267.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7500 gr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">267.451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">artha.daging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A***n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">******22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zamra House, Jl Haj Ten Komplek Bulog Blok B No.25, KOTA JAKARTA TIMUR, PULO GADUNG, DKI JAKARTA, ID, 13210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOTA JAKARTA TIMUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231218GK7S6K3D</t>
-  </si>
-  <si>
     <t xml:space="preserve">10008153436705</t>
   </si>
   <si>
@@ -466,6 +469,9 @@
     <t xml:space="preserve">2023-12-20 10:51</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-12-18 15:11</t>
+  </si>
+  <si>
     <t xml:space="preserve">2023-12-18 10:51</t>
   </si>
   <si>
@@ -532,6 +538,9 @@
     <t xml:space="preserve">2023-12-20 10:55</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-12-18 16:01</t>
+  </si>
+  <si>
     <t xml:space="preserve">2023-12-18 10:55</t>
   </si>
   <si>
@@ -580,9 +589,15 @@
     <t xml:space="preserve">231218GN2TFBVV</t>
   </si>
   <si>
+    <t xml:space="preserve">10008154145608</t>
+  </si>
+  <si>
     <t xml:space="preserve">2023-12-20 11:20</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-12-18 15:10</t>
+  </si>
+  <si>
     <t xml:space="preserve">2023-12-18 11:19</t>
   </si>
   <si>
@@ -626,6 +641,360 @@
   </si>
   <si>
     <t xml:space="preserve">1000 gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231218GVX7N88D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dibatalkan oleh Pembeli. Alasan: Perlu mengubah Voucher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-18 13:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAS021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinode Jun Mirin- Arak masak 1.8 liter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giovanitjang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G*****I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">******12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Om******</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOTA MEDAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMATERA UTARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231218GW02RY0C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004264418198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-20 13:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-18 13:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G*****i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. CUT NYAK DIEN NO.2/2B, KOTA MEDAN, MEDAN POLONIA, SUMATERA UTARA, ID, 20152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231218GY4M8EDV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JT69650495824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kargo-JNE Trucking (JTR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-20 14:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-18 16:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-18 14:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-18 14:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAS022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinode Hon Mirin- Arak masak 640ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1100 gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3600 gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeonjungkok34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J******k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">******00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Candrabuana No.19, cipeundeuy, padalarang, KAB. BANDUNG BARAT, PADALARANG, JAWA BARAT, ID, 40553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAB. BANDUNG BARAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAS067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinode Goseishu Nizake Sak* Japanese Cooking Seasoning-Ar** Masak 1.8L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231218H4EE91N6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10008155260102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-20 15:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-18 15:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-18 15:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KSOY2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kikkoman Soy Sauce - Kecap Asin Khas Jepang 150 ml Dispenser HALAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1625 gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20gk5fhlt1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E******h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">******19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mega Kebon Jeruk (B6 no 6 pagar putih), KOTA JAKARTA BARAT, KEMBANGAN, DKI JAKARTA, ID, 11610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOTA JAKARTA BARAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAS014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mizkan Pon Shabu 250 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">525 gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSF021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japchae 500gr / Dangmyeon / Korean Vermicelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231218H87WE2BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belum Bayar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-18 17:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeaBank Bayar Instan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KYAK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kikkoman Yakiniku Sauce - Saus Yakiniku 2 liter HALAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2800 gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3110 gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kikiapril.syam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K******i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja******</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DWAK50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dried Cut Wakame 50 gr | Rumput Laut Kering SHARE SIZE 50gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAS063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAVA SUPER FOOD KIMCHI SAWI FRESH 200 GRAM / KIMCHI HALAL ALA KOREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250 gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231218H8CGBM7Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-20 17:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-18 17:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-18 17:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Furusato Miso 1Kg Halal | Tauco Jepang | Shiro Miso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ditifelisa12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S**i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">******16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU @Cafe Kemang Pratama (Kav. No C. 03, Jl. Niaga Raya Jl. Kemang Pratama Raya No.3, RT.001/RW.011, Sepanjang Jaya, Kec. Rawalumbu, Kota Bekasi jawa barat 17114 (CU @ Cafe Kemang), KOTA BEKASI, RAWALUMBU, JAWA BARAT, ID, 17114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231218HG4PJ1RN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kargo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-18 19:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMIR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kikkoman Sweet Saue - Saus Manis Khas Jepang Mirin Jerigen 5L HALAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">224.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231.401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seyyzz__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I**m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">******89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl******</t>
   </si>
 </sst>
 </file>
@@ -862,13 +1231,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AW12"/>
+  <dimension ref="A1:AW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="30"/>
@@ -893,7 +1262,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="47" style="0" width="20"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1411,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
@@ -1179,7 +1548,7 @@
       </c>
       <c r="AW2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
@@ -1314,28 +1683,30 @@
       </c>
       <c r="AW3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>53</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
         <v>89</v>
       </c>
@@ -1447,7 +1818,7 @@
       </c>
       <c r="AW4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>106</v>
       </c>
@@ -1582,59 +1953,59 @@
       </c>
       <c r="AW5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>53</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>57</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>82</v>
       </c>
       <c r="T6" s="5"/>
       <c r="U6" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>65</v>
@@ -1646,13 +2017,13 @@
         <v>65</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z6" s="5" t="s">
         <v>63</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AB6" s="5" t="s">
         <v>65</v>
@@ -1661,7 +2032,7 @@
         <v>65</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AE6" s="5" t="s">
         <v>69</v>
@@ -1688,7 +2059,7 @@
         <v>65</v>
       </c>
       <c r="AM6" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AN6" s="5" t="s">
         <v>100</v>
@@ -1696,78 +2067,78 @@
       <c r="AO6" s="5"/>
       <c r="AP6" s="5"/>
       <c r="AQ6" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AR6" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AS6" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AT6" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AU6" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AV6" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AW6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>57</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N7" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>82</v>
       </c>
       <c r="T7" s="5"/>
       <c r="U7" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="V7" s="5" t="s">
         <v>65</v>
@@ -1779,13 +2150,13 @@
         <v>65</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>63</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AB7" s="4" t="s">
         <v>65</v>
@@ -1794,7 +2165,7 @@
         <v>65</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AE7" s="4" t="s">
         <v>69</v>
@@ -1821,7 +2192,7 @@
         <v>65</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AN7" s="4" t="s">
         <v>100</v>
@@ -1829,78 +2200,80 @@
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AR7" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AS7" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AU7" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AV7" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AW7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I8" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="J8" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>82</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>65</v>
@@ -1912,13 +2285,13 @@
         <v>65</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>63</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>65</v>
@@ -1939,7 +2312,7 @@
         <v>65</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AI8" s="3" t="s">
         <v>65</v>
@@ -1954,74 +2327,76 @@
         <v>65</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AN8" s="3" t="s">
         <v>100</v>
       </c>
       <c r="AO8" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AP8" s="3"/>
       <c r="AQ8" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AR8" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AS8" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT8" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AU8" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AV8" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AW8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I9" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="J9" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>57</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3" t="s">
@@ -2047,13 +2422,13 @@
         <v>65</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Z9" s="4" t="s">
         <v>63</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB9" s="4" t="s">
         <v>65</v>
@@ -2074,7 +2449,7 @@
         <v>65</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AI9" s="4" t="s">
         <v>65</v>
@@ -2089,88 +2464,90 @@
         <v>65</v>
       </c>
       <c r="AM9" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AN9" s="4" t="s">
         <v>100</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AR9" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AS9" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AU9" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AV9" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AW9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="I10" s="5"/>
+        <v>171</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="J10" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>91</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>63</v>
       </c>
       <c r="T10" s="5"/>
       <c r="U10" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>65</v>
@@ -2182,13 +2559,13 @@
         <v>65</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Z10" s="5" t="s">
         <v>63</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AB10" s="5" t="s">
         <v>65</v>
@@ -2218,74 +2595,80 @@
         <v>65</v>
       </c>
       <c r="AK10" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AL10" s="5" t="s">
         <v>65</v>
       </c>
       <c r="AM10" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AN10" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AO10" s="5"/>
       <c r="AP10" s="5"/>
       <c r="AQ10" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AR10" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AS10" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AT10" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AU10" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AV10" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AW10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="F11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="H11" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I11" s="3"/>
+        <v>190</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="J11" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3" t="s">
@@ -2311,13 +2694,13 @@
         <v>65</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AB11" s="3" t="s">
         <v>65</v>
@@ -2353,7 +2736,7 @@
         <v>65</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="AN11" s="3" t="s">
         <v>100</v>
@@ -2361,16 +2744,16 @@
       <c r="AO11" s="3"/>
       <c r="AP11" s="3"/>
       <c r="AQ11" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AR11" s="3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AS11" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AT11" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AU11" s="3" t="s">
         <v>76</v>
@@ -2380,55 +2763,61 @@
       </c>
       <c r="AW11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="F12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="H12" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I12" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="J12" s="4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>57</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>65</v>
@@ -2440,13 +2829,13 @@
         <v>65</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AB12" s="4" t="s">
         <v>65</v>
@@ -2482,7 +2871,7 @@
         <v>65</v>
       </c>
       <c r="AM12" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="AN12" s="4" t="s">
         <v>100</v>
@@ -2490,16 +2879,16 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="4" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AR12" s="4" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AS12" s="4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AT12" s="4" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AU12" s="4" t="s">
         <v>76</v>
@@ -2509,6 +2898,1584 @@
       </c>
       <c r="AW12" s="4"/>
     </row>
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN13" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AR13" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AS13" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT13" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AU13" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AV13" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK14" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AN14" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AR14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AU14" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AV14" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD15" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM15" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="AR15" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS15" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT15" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU15" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV15" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM16" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AR16" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS16" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT16" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU16" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH17" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AN17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR17" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AS17" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AT17" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AU17" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AV17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM18" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="AN18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR18" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="AS18" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AT18" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="AU18" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AV18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH19" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM19" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="AN19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR19" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="AS19" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AT19" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="AU19" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AV19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM20" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="AR20" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="AS20" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT20" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="AU20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM21" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AR21" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="AS21" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT21" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="AU21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM22" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AR22" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="AS22" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT22" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="AU22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM23" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AN23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR23" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="AS23" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AT23" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="AU23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="X24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ24" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK24" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="AL24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM24" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="AN24" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="AR24" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="AS24" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="AT24" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU24" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW24" s="5"/>
+    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
